--- a/A5/benchmarks.xlsx
+++ b/A5/benchmarks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>CPU</t>
   </si>
@@ -52,9 +52,6 @@
     <t>GPU(3)</t>
   </si>
   <si>
-    <t>1024 | 1024</t>
-  </si>
-  <si>
     <t>512 | 512</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Block size | tile size</t>
+  </si>
+  <si>
+    <t>32|256</t>
+  </si>
+  <si>
+    <t>1024|1024</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,21 +105,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +649,576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000x1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$27:$H$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32|256</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256 |32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>256 |1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1024 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512 | 512</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1024|1024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Block size | tile size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60394999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27676000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20247999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22400999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23913000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000x2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$27:$H$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32|256</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256 |32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>256 |1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1024 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512 | 512</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1024|1024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Block size | tile size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4470100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42592000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39317999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37036999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40760999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000x3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$27:$H$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32|256</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256 |32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>256 |1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1024 | 256</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512 | 512</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1024|1024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Block size | tile size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.336690000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8610099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0885400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94757000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89739999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="132518912"/>
+        <c:axId val="447107128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132518912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447107128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447107128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132518912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1145,6 +1761,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1172,6 +2304,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1467,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,108 +2761,123 @@
         <v>11.336690000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.60394999999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.27676000000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.20532</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.20247999999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.22400999999999999</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.20496</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.23913000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0.27676000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.20532</v>
-      </c>
-      <c r="D29">
-        <v>0.20247999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0.22400999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0.20496</v>
-      </c>
-      <c r="G29">
-        <v>0.23913000000000001</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.4470100000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.03992</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.40964</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.42592000000000002</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.39317999999999997</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.37036999999999998</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.40760999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>1.03992</v>
-      </c>
-      <c r="C30">
-        <v>0.40964</v>
-      </c>
-      <c r="D30">
-        <v>0.42592000000000002</v>
-      </c>
-      <c r="E30">
-        <v>0.39317999999999997</v>
-      </c>
-      <c r="F30">
-        <v>0.37036999999999998</v>
-      </c>
-      <c r="G30">
-        <v>0.40760999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
+        <v>11.336690000000001</v>
+      </c>
+      <c r="C31" s="3">
         <v>2.8610099999999998</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="3">
         <v>1.0885400000000001</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="3">
         <v>0.95404</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="3">
         <v>0.94757000000000002</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="3">
         <v>0.97423999999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31" s="3">
         <v>0.89739999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
